--- a/biology/Zoologie/Dilophus/Dilophus.xlsx
+++ b/biology/Zoologie/Dilophus/Dilophus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilophus est un genre d'insectes diptères nématocères de la famille des Bibionidae. L'ordre des diptères regroupe, entre autres, des espèces principalement désignées par les noms vernaculaires de mouches, moustiques, taons.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dilophus antipedalis
@@ -530,8 +544,43 @@
 Dilophus sardous
 Dilophus tenuis
 Dilophus tridentatus
-Espèces fossiles
-Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de douze[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dilophus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilophus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de douze :
 †Dilophus andrewrossi Nel et al. 2019
 †Dilophus campbelli Harris 1983
 †Dilophus crassicornis Skartveit 2009
